--- a/Intro_Excel_ChigboEze.xlsx
+++ b/Intro_Excel_ChigboEze.xlsx
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,6 +384,15 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2796,11 +2805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-378984992"/>
-        <c:axId val="-378976288"/>
+        <c:axId val="-1706308816"/>
+        <c:axId val="-1706314800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-378984992"/>
+        <c:axId val="-1706308816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +2863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-378976288"/>
+        <c:crossAx val="-1706314800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2871,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-378976288"/>
+        <c:axId val="-1706314800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-378984992"/>
+        <c:crossAx val="-1706308816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3206,13 +3215,13 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -3228,7 +3237,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3274,7 +3283,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3296,7 +3305,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3318,7 +3327,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3340,7 +3349,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3364,7 +3373,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3386,7 +3395,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3409,7 +3418,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3432,7 +3441,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3455,7 +3464,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3478,7 +3487,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3500,7 +3509,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3522,7 +3531,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3544,7 +3553,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3566,7 +3575,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3588,7 +3597,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3610,7 +3619,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3632,7 +3641,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3654,7 +3663,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3676,7 +3685,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3698,7 +3707,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3720,7 +3729,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3742,7 +3751,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3764,7 +3773,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3786,7 +3795,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3808,7 +3817,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3830,7 +3839,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3852,7 +3861,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3874,7 +3883,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3896,7 +3905,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3918,7 +3927,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3940,7 +3949,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3962,7 +3971,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3984,7 +3993,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4006,7 +4015,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -4028,7 +4037,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4050,7 +4059,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4072,7 +4081,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4094,7 +4103,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -4116,7 +4125,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -4138,7 +4147,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4160,7 +4169,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4182,7 +4191,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4204,7 +4213,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -4226,7 +4235,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -4248,7 +4257,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -4270,7 +4279,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -4292,7 +4301,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4314,7 +4323,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="15">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -4336,7 +4345,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4358,7 +4367,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4380,7 +4389,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="15">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4402,7 +4411,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="15">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -4424,7 +4433,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="15">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4446,7 +4455,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="15">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -4468,7 +4477,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="15">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -4490,7 +4499,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="15">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -4512,7 +4521,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -4534,7 +4543,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="15">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -4556,7 +4565,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4578,7 +4587,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -4600,7 +4609,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="15">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4622,7 +4631,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -4644,7 +4653,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="15">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -4666,7 +4675,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -4688,7 +4697,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="15">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4710,7 +4719,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="15">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -4732,7 +4741,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -4754,7 +4763,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="15">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -4776,7 +4785,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -4798,7 +4807,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="15">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -4879,11 +4888,11 @@
         <v>80</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" ref="D75:F75" si="5">MIN(D2:D71)</f>
+        <f>MIN(D2:D71)</f>
         <v>69</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D75:F75" si="5">MIN(E2:E71)</f>
         <v>836</v>
       </c>
       <c r="F75" s="8">
